--- a/DatabaseDesign.xlsx
+++ b/DatabaseDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash Patel\OneDrive - Conestoga College\MSD\SecondTerm\WebTechnologies\Assignments\Assignment4_YashMayank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E861588-7FD0-412D-8272-D6DEA24765EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58C156-0211-43ED-9141-7338E180D0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
